--- a/alu-4/Spec/GatterEquivalente.xlsx
+++ b/alu-4/Spec/GatterEquivalente.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\LogicWorksLib\alu-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\LogicWorksLib\alu-4\Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Typ</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Buffer-4</t>
   </si>
   <si>
-    <t>MUX 1x8</t>
-  </si>
-  <si>
     <t>MUX-4x2</t>
   </si>
   <si>
@@ -182,13 +179,52 @@
     <t>OR5</t>
   </si>
   <si>
-    <t>extras</t>
-  </si>
-  <si>
     <t>Multiplizierer</t>
   </si>
   <si>
     <t>Buffer4</t>
+  </si>
+  <si>
+    <t>BarrelShifter-8</t>
+  </si>
+  <si>
+    <t>MUX2x16</t>
+  </si>
+  <si>
+    <t>MUX4x4</t>
+  </si>
+  <si>
+    <t>MUX4x5</t>
+  </si>
+  <si>
+    <t>MUX8x1</t>
+  </si>
+  <si>
+    <t>NOR8</t>
+  </si>
+  <si>
+    <t>PROM</t>
+  </si>
+  <si>
+    <t>LROT</t>
+  </si>
+  <si>
+    <t>RROT</t>
+  </si>
+  <si>
+    <t>LSHIFT</t>
+  </si>
+  <si>
+    <t>RSHIFT</t>
+  </si>
+  <si>
+    <t>6 MUX2x4</t>
+  </si>
+  <si>
+    <t>4 MUX 2x4</t>
+  </si>
+  <si>
+    <t>4 MUX 8x1</t>
   </si>
 </sst>
 </file>
@@ -221,15 +257,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -616,11 +664,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -705,15 +764,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
@@ -742,6 +794,27 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1022,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1120,11 @@
     <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,97 +1140,157 @@
       <c r="H1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="29">
         <v>2</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="46">
+        <v>3</v>
+      </c>
+      <c r="K2" s="29">
+        <v>1</v>
+      </c>
+      <c r="L2" s="46">
+        <v>1</v>
+      </c>
+      <c r="M2" s="29">
+        <v>1</v>
+      </c>
+      <c r="N2" s="29">
+        <v>31</v>
+      </c>
+      <c r="O2" s="28">
+        <v>9</v>
+      </c>
+      <c r="P2" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>1</v>
+      </c>
+      <c r="R2" s="46">
+        <v>32</v>
+      </c>
+      <c r="S2" s="46">
+        <v>16</v>
+      </c>
+      <c r="T2" s="46">
+        <v>4</v>
+      </c>
+      <c r="U2" s="28">
+        <v>4</v>
+      </c>
+      <c r="V2" s="48">
+        <v>1</v>
+      </c>
+      <c r="W2" s="15">
+        <v>1</v>
+      </c>
+      <c r="X2" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="41">
         <v>2</v>
       </c>
-      <c r="K2" s="32">
-        <v>1</v>
-      </c>
-      <c r="L2" s="15">
-        <v>1</v>
-      </c>
-      <c r="M2" s="32">
-        <v>1</v>
-      </c>
-      <c r="N2" s="32">
-        <v>7</v>
-      </c>
-      <c r="O2" s="30">
-        <v>1</v>
-      </c>
-      <c r="P2" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15">
-        <v>32</v>
-      </c>
-      <c r="S2" s="15">
-        <v>16</v>
-      </c>
-      <c r="T2" s="15">
-        <v>4</v>
-      </c>
-      <c r="U2" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="41">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="41">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="42"/>
+    </row>
+    <row r="3" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1165,30 +1299,49 @@
       </c>
       <c r="C3" s="7">
         <f>H4</f>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D3" s="8">
         <f>C3*B3</f>
-        <v>97.5</v>
+        <v>118.5</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="K3" s="33">
-        <v>108.5</v>
-      </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29"/>
-    </row>
-    <row r="4" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="43"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="58"/>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1196,12 +1349,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:C23" si="0">H5</f>
-        <v>13</v>
+        <f t="shared" ref="C4:C17" si="0">H5</f>
+        <v>25</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D22" si="1">C4*B4</f>
-        <v>26</v>
+        <f t="shared" ref="D4:D19" si="1">C4*B4</f>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1211,29 +1364,34 @@
       </c>
       <c r="H4" s="18">
         <f>SUM(I$2*I4,J$2*J4,K$2*K4,L$2*L4,M$2*M4,N$2*N4,O$2*O4,P$2*P4,R$2*R4,S$2*S4,T$2*T4,U$2*U4)</f>
-        <v>65</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36">
-        <v>1</v>
-      </c>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36">
+        <v>79</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="43">
+        <v>12</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="43">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="26">
+        <v>1</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26">
         <v>4</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="44">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="18"/>
+    </row>
+    <row r="5" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1242,36 +1400,41 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8">
         <f>C5*B5</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="18">
-        <f t="shared" ref="H5:H35" si="2">SUM(I$2*I5,J$2*J5,K$2*K5,L$2*L5,M$2*M5,N$2*N5,O$2*O5,P$2*P5,R$2*R5,S$2*S5,T$2*T5,U$2*U5)</f>
-        <v>13</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36">
+        <f t="shared" ref="H5:H18" si="2">SUM(I$2*I5,J$2*J5,K$2*K5,L$2*L5,M$2*M5,N$2*N5,O$2*O5,P$2*P5,R$2*R5,S$2*S5,T$2*T5,U$2*U5)</f>
+        <v>25</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="43">
+        <v>12</v>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26">
         <v>3</v>
       </c>
-      <c r="U5" s="18"/>
-    </row>
-    <row r="6" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="44"/>
+      <c r="AA5" s="18"/>
+    </row>
+    <row r="6" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -1291,23 +1454,28 @@
       </c>
       <c r="H6" s="18">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36">
+        <v>16</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="43">
+        <v>4</v>
+      </c>
+      <c r="L6" s="45"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26">
         <v>3</v>
       </c>
-      <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="44"/>
+      <c r="AA6" s="18"/>
+    </row>
+    <row r="7" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1316,11 +1484,11 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>35</v>
@@ -1329,21 +1497,24 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36">
-        <v>1</v>
-      </c>
-      <c r="U7" s="18"/>
-    </row>
-    <row r="8" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="43"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26">
+        <v>1</v>
+      </c>
+      <c r="U7" s="44"/>
+      <c r="AA7" s="18"/>
+    </row>
+    <row r="8" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1352,44 +1523,47 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="18">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I8" s="33">
-        <v>1</v>
-      </c>
-      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="43">
+        <v>1</v>
+      </c>
+      <c r="J8" s="45">
         <v>2</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8">
+      <c r="K8" s="43">
+        <v>6</v>
+      </c>
+      <c r="L8" s="45">
         <v>2</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="43">
         <v>2</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="43"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="43">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="44"/>
+      <c r="AA8" s="18"/>
+    </row>
+    <row r="9" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1409,23 +1583,26 @@
       </c>
       <c r="H9" s="18">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+        <v>124</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43">
         <v>4</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="18"/>
-    </row>
-    <row r="10" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="44"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="44"/>
+      <c r="AA9" s="18"/>
+    </row>
+    <row r="10" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1447,19 +1624,25 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="18"/>
-    </row>
-    <row r="11" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="43"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="44"/>
+      <c r="AA10" s="18"/>
+      <c r="AD10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1468,11 +1651,11 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>11</v>
@@ -1481,21 +1664,24 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="18">
-        <v>9</v>
-      </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="18"/>
-    </row>
-    <row r="12" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="43"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44">
+        <v>1</v>
+      </c>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="44"/>
+      <c r="AA11" s="18"/>
+    </row>
+    <row r="12" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1515,23 +1701,30 @@
       </c>
       <c r="H12" s="18">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I12" s="33">
+        <v>8</v>
+      </c>
+      <c r="I12" s="43">
         <v>3</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="18"/>
-    </row>
-    <row r="13" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="45"/>
+      <c r="K12" s="43">
+        <v>2</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="44"/>
+      <c r="AA12" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1540,11 +1733,11 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>13</v>
@@ -1553,19 +1746,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="18"/>
-    </row>
-    <row r="14" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="43"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="44"/>
+      <c r="AA13" s="18"/>
+    </row>
+    <row r="14" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1585,21 +1781,26 @@
       </c>
       <c r="H14" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="18"/>
-    </row>
-    <row r="15" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="43">
+        <v>1</v>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="44"/>
+      <c r="AA14" s="18"/>
+    </row>
+    <row r="15" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1608,11 +1809,11 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>15</v>
@@ -1621,19 +1822,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="18"/>
-    </row>
-    <row r="16" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="43"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="44"/>
+      <c r="AA15" s="18"/>
+    </row>
+    <row r="16" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1642,32 +1846,37 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="18"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="43">
+        <v>2</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="44"/>
+      <c r="AA16" s="18"/>
+    </row>
+    <row r="17" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1676,32 +1885,37 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="18"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="43">
+        <v>5</v>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="44"/>
+      <c r="AA17" s="18"/>
+    </row>
+    <row r="18" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1709,663 +1923,738 @@
         <v>2</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H19</f>
+        <v>3</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="18"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="43">
+        <v>5</v>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="44"/>
+      <c r="AA18" s="18"/>
+    </row>
+    <row r="19" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12">
+        <v>4</v>
       </c>
       <c r="C19" s="7">
         <f>H20</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>31.5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="18"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(I$2*I19,J$2*J19,K$2*K19,L$2*L19,M$2*M19,N$2*N19,O$2*O19,P$2*P19,R$2*R19,S$2*S19,T$2*T19,U$2*U19)</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="43">
+        <v>2</v>
+      </c>
+      <c r="L19" s="45"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="44"/>
+      <c r="AA19" s="18"/>
+    </row>
+    <row r="20" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>H21</f>
+        <v>20</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>20</v>
+        <f>C20*B20</f>
+        <v>30</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="H20" s="18">
         <f>SUM(I$2*I20,J$2*J20,K$2*K20,L$2*L20,M$2*M20,N$2*N20,O$2*O20,P$2*P20,R$2*R20,S$2*S20,T$2*T20,U$2*U20)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="P20" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="AA20" s="18"/>
+    </row>
+    <row r="21" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36">
-        <v>1</v>
-      </c>
-      <c r="T20" s="36">
-        <v>1</v>
-      </c>
-      <c r="U20" s="18"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7">
+        <f>H22</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="8">
+        <f>C21*B21</f>
+        <v>8</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="18">
+        <f>SUM(I$2*I21,J$2*J21,K$2*K21,L$2*L21,M$2*M21,N$2*N21,O$2*O21,P$2*P21,R$2*R21,S$2*S21,T$2*T21,U$2*U21)</f>
+        <v>20</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26">
+        <v>1</v>
+      </c>
+      <c r="T21" s="26">
+        <v>1</v>
+      </c>
+      <c r="U21" s="44"/>
+      <c r="AA21" s="18"/>
+    </row>
+    <row r="22" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B22" s="6">
         <v>2.5</v>
       </c>
-      <c r="C21" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="C22" s="7">
+        <f>H23</f>
+        <v>8</v>
+      </c>
+      <c r="D22" s="8">
+        <f>C22*B22</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="18">
-        <f t="shared" si="2"/>
+      <c r="H22" s="18">
+        <f>SUM(I$2*I22,J$2*J22,K$2*K22,L$2*L22,M$2*M22,N$2*N22,O$2*O22,P$2*P22,R$2*R22,S$2*S22,T$2*T22,U$2*U22)</f>
         <v>4</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36">
-        <v>1</v>
-      </c>
-      <c r="U21" s="18"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="I22" s="43"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26">
+        <v>1</v>
+      </c>
+      <c r="U22" s="44"/>
+      <c r="AA22" s="18"/>
+    </row>
+    <row r="23" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="12">
         <v>3</v>
       </c>
-      <c r="C22" s="7">
-        <f t="shared" si="0"/>
+      <c r="C23" s="7">
+        <f>H24</f>
         <v>4</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36">
-        <v>2</v>
-      </c>
-      <c r="U22" s="18"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="D23" s="8">
         <f>C23*B23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36">
-        <v>1</v>
-      </c>
-      <c r="U23" s="18"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="10">
+        <f>SUM(I$2*I23,J$2*J23,K$2*K23,L$2*L23,M$2*M23,N$2*N23,O$2*O23,P$2*P23,R$2*R23,S$2*S23,T$2*T23,U$2*U23)</f>
+        <v>8</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26">
+        <v>2</v>
+      </c>
+      <c r="U23" s="44"/>
+      <c r="AA23" s="18"/>
+    </row>
+    <row r="24" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
         <v>3</v>
       </c>
       <c r="C24" s="7">
         <f>H25</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D24" s="8">
         <f>C24*B24</f>
-        <v>96</v>
-      </c>
-      <c r="G24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="18">
+        <f>SUM(I$2*I24,J$2*J24,K$2*K24,L$2*L24,M$2*M24,N$2*N24,O$2*O24,P$2*P24,R$2*R24,S$2*S24,T$2*T24,U$2*U24)</f>
+        <v>4</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26">
+        <v>1</v>
+      </c>
+      <c r="U24" s="44"/>
+      <c r="AA24" s="18"/>
+    </row>
+    <row r="25" spans="1:27" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <f>H26</f>
+        <v>45</v>
+      </c>
+      <c r="D25" s="8">
+        <f>C25*B25</f>
+        <v>135</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="18"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="H25" s="18">
+        <f>SUM(I$2*I25,J$2*J25,K$2*K25,L$2*L25,M$2*M25,N$2*N25,O$2*O25,P$2*P25,R$2*R25,S$2*S25,T$2*T25,U$2*U25)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="44"/>
+      <c r="AA25" s="18"/>
+    </row>
+    <row r="26" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="G25" s="16" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="G26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="18">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36">
-        <v>1</v>
-      </c>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="18"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="H26" s="18">
+        <f>SUM(I$2*I26,J$2*J26,K$2*K26,L$2*L26,M$2*M26,N$2*N26,O$2*O26,P$2*P26,R$2*R26,S$2*S26,T$2*T26,U$2*U26)</f>
+        <v>45</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="43">
+        <v>8</v>
+      </c>
+      <c r="L26" s="45"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="26">
+        <v>1</v>
+      </c>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="44"/>
+      <c r="AA26" s="18"/>
+    </row>
+    <row r="27" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B27" s="6">
         <v>7</v>
       </c>
-      <c r="C26" s="7">
-        <f>H26</f>
-        <v>25</v>
-      </c>
-      <c r="D26" s="8">
-        <f>B26*C26</f>
-        <v>175</v>
-      </c>
-      <c r="G26" s="16" t="s">
+      <c r="C27" s="7">
+        <f>H27</f>
+        <v>29</v>
+      </c>
+      <c r="D27" s="8">
+        <f>B27*C27</f>
+        <v>203</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="18">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="I26" s="33">
+      <c r="H27" s="18">
+        <f>SUM(I$2*I27,J$2*J27,K$2*K27,L$2*L27,M$2*M27,N$2*N27,O$2*O27,P$2*P27,R$2*R27,S$2*S27,T$2*T27,U$2*U27)</f>
+        <v>29</v>
+      </c>
+      <c r="I27" s="43">
         <v>4</v>
       </c>
-      <c r="J26">
+      <c r="J27" s="45">
         <v>4</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26">
+      <c r="K27" s="43"/>
+      <c r="L27" s="45">
         <v>3</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M27" s="43">
         <v>5</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="18"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="44"/>
+      <c r="AA27" s="18"/>
+    </row>
+    <row r="28" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" s="6">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7">
-        <f t="shared" ref="C27:C34" si="3">H27</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" ref="D27:D33" si="4">B27*C27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="18"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="B28" s="6">
         <v>8</v>
       </c>
       <c r="C28" s="7">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" ref="D28:D34" si="3">B28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="18">
+        <f>SUM(I$2*I28,J$2*J28,K$2*K28,L$2*L28,M$2*M28,N$2*N28,O$2*O28,P$2*P28,R$2*R28,S$2*S28,T$2*T28,U$2*U28)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="44"/>
+      <c r="AA28" s="18"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
+        <f>H29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D28" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="18"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="H29" s="18">
+        <f>SUM(I$2*I29,J$2*J29,K$2*K29,L$2*L29,M$2*M29,N$2*N29,O$2*O29,P$2*P29,R$2*R29,S$2*S29,T$2*T29,U$2*U29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="44"/>
+      <c r="AA29" s="18"/>
+    </row>
+    <row r="30" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="6">
         <v>9</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="7">
+        <f>H30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D29" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="16" t="s">
+      <c r="G30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="18"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="H30" s="18">
+        <f>SUM(I$2*I30,J$2*J30,K$2*K30,L$2*L30,M$2*M30,N$2*N30,O$2*O30,P$2*P30,R$2*R30,S$2*S30,T$2*T30,U$2*U30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="44"/>
+      <c r="AA30" s="18"/>
+    </row>
+    <row r="31" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="7">
+        <f>H31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="16" t="s">
+      <c r="G31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="18"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="H31" s="18">
+        <f>SUM(I$2*I31,J$2*J31,K$2*K31,L$2*L31,M$2*M31,N$2*N31,O$2*O31,P$2*P31,R$2*R31,S$2*S31,T$2*T31,U$2*U31)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="44"/>
+      <c r="AA31" s="18"/>
+    </row>
+    <row r="32" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B32" s="6">
         <v>0.25</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="7">
+        <f>H32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="G32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="18"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="H32" s="18">
+        <f>SUM(I$2*I32,J$2*J32,K$2*K32,L$2*L32,M$2*M32,N$2*N32,O$2*O32,P$2*P32,R$2*R32,S$2*S32,T$2*T32,U$2*U32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="44"/>
+      <c r="AA32" s="18"/>
+    </row>
+    <row r="33" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B33" s="6">
         <v>7.5</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C33" s="7">
+        <f>H33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="16" t="s">
+      <c r="G33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="18"/>
-    </row>
-    <row r="33" spans="1:26" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="H33" s="18">
+        <f>SUM(I$2*I33,J$2*J33,K$2*K33,L$2*L33,M$2*M33,N$2*N33,O$2*O33,P$2*P33,R$2*R33,S$2*S33,T$2*T33,U$2*U33)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="44"/>
+      <c r="AA33" s="18"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="38">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="B34" s="31">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="18"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="41">
+      <c r="H34" s="18">
+        <f>SUM(I$2*I34,J$2*J34,K$2*K34,L$2*L34,M$2*M34,N$2*N34,O$2*O34,P$2*P34,R$2*R34,S$2*S34,T$2*T34,U$2*U34)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="44"/>
+      <c r="AA34" s="18"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="34">
         <v>4</v>
       </c>
-      <c r="C34" s="7">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="D34" s="27">
-        <f>B34*C34</f>
-        <v>76</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="G34" s="17" t="s">
+      <c r="C35" s="7">
+        <f>H35</f>
+        <v>18</v>
+      </c>
+      <c r="D35" s="27">
+        <f>B35*C35</f>
+        <v>72</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="G35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="18">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="I34" s="33">
+      <c r="H35" s="18">
+        <f>SUM(I$2*I35,J$2*J35,K$2*K35,L$2*L35,M$2*M35,N$2*N35,O$2*O35,P$2*P35,R$2*R35,S$2*S35,T$2*T35,U$2*U35)</f>
+        <v>18</v>
+      </c>
+      <c r="I35" s="43">
         <v>4</v>
       </c>
-      <c r="J34">
+      <c r="J35" s="45">
         <v>2</v>
       </c>
-      <c r="K34" s="33"/>
-      <c r="L34">
+      <c r="K35" s="43"/>
+      <c r="L35" s="45">
         <v>2</v>
       </c>
-      <c r="M34" s="33">
-        <v>4</v>
-      </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="18"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="M35" s="43">
+        <v>2</v>
+      </c>
+      <c r="N35" s="43"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="44"/>
+      <c r="AA35" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="40">
-        <f>SUM(K3)</f>
-        <v>108.5</v>
-      </c>
-      <c r="D35" s="13">
-        <f>SUM(D26:D34,D3:D24,C35)</f>
-        <v>934.5</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="18"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G36" s="17"/>
-      <c r="L36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="13">
+        <f>SUM(D27:D35,D3:D25)</f>
+        <v>1270</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="18">
+        <f>SUM(I$2*I36,J$2*J36,K$2*K36,L$2*L36,M$2*M36,N$2*N36,O$2*O36,P$2*P36,R$2*R36,S$2*S36,T$2*T36,U$2*U36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="44"/>
+      <c r="AA36" s="18"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="U40" s="26"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="V41" s="26"/>
       <c r="X41" s="26"/>
       <c r="Z41" s="26"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="V43" s="26"/>
     </row>
   </sheetData>

--- a/alu-4/Spec/GatterEquivalente.xlsx
+++ b/alu-4/Spec/GatterEquivalente.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>Typ</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>4 MUX 8x1</t>
+  </si>
+  <si>
+    <t>extra</t>
   </si>
 </sst>
 </file>
@@ -257,25 +260,13 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -452,17 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -643,19 +623,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -675,11 +642,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -716,18 +713,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
@@ -736,9 +733,9 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -758,30 +755,29 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -794,27 +790,26 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1095,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,73 +1135,73 @@
       <c r="H1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="52" t="s">
+      <c r="AA1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AE1" s="39" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1214,81 +1209,83 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="27">
         <v>2</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="35">
         <v>3</v>
       </c>
-      <c r="K2" s="29">
-        <v>1</v>
-      </c>
-      <c r="L2" s="46">
-        <v>1</v>
-      </c>
-      <c r="M2" s="29">
-        <v>1</v>
-      </c>
-      <c r="N2" s="29">
+      <c r="K2" s="27">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35">
+        <v>1</v>
+      </c>
+      <c r="M2" s="27">
+        <v>1</v>
+      </c>
+      <c r="N2" s="27">
         <v>31</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="26">
         <v>9</v>
       </c>
-      <c r="P2" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="46">
-        <v>1</v>
-      </c>
-      <c r="R2" s="46">
+      <c r="P2" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="35">
+        <v>1</v>
+      </c>
+      <c r="R2" s="35">
         <v>32</v>
       </c>
-      <c r="S2" s="46">
+      <c r="S2" s="35">
         <v>16</v>
       </c>
-      <c r="T2" s="46">
+      <c r="T2" s="35">
         <v>4</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="26">
         <v>4</v>
       </c>
-      <c r="V2" s="48">
-        <v>1</v>
-      </c>
-      <c r="W2" s="15">
-        <v>1</v>
-      </c>
-      <c r="X2" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="41">
+      <c r="V2" s="37">
+        <v>1</v>
+      </c>
+      <c r="W2" s="35">
+        <v>1</v>
+      </c>
+      <c r="X2" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="35">
         <v>2</v>
       </c>
-      <c r="AC2" s="41">
+      <c r="AC2" s="35">
         <v>2</v>
       </c>
-      <c r="AD2" s="41">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="42"/>
+      <c r="AD2" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1308,19 +1305,19 @@
       <c r="H3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="58"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="39"/>
       <c r="W3" t="s">
         <v>64</v>
       </c>
@@ -1334,11 +1331,14 @@
         <v>64</v>
       </c>
       <c r="AA3" s="18"/>
-      <c r="AB3" s="26" t="s">
+      <c r="AB3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AC3" s="25" t="s">
         <v>66</v>
+      </c>
+      <c r="AE3">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1363,30 +1363,30 @@
         <v>5</v>
       </c>
       <c r="H4" s="18">
-        <f>SUM(I$2*I4,J$2*J4,K$2*K4,L$2*L4,M$2*M4,N$2*N4,O$2*O4,P$2*P4,R$2*R4,S$2*S4,T$2*T4,U$2*U4)</f>
+        <f>SUM(I$2*I4,J$2*J4,K$2*K4,L$2*L4,M$2*M4,N$2*N4,O$2*O4,P$2*P4,R$2*R4,S$2*S4,T$2*T4,U$2*U4,V$2*V4,W$2*W4,X$2*X4,Y$2*Y4,Z$2*Z4,AA$2*AA4,AB$2*AB4,AC$2*AC4,AD$2*AD4,)</f>
         <v>79</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="43">
+      <c r="I4" s="32"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="32">
         <v>12</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="43">
+      <c r="L4" s="34"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="32">
         <v>3</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="26">
-        <v>1</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26">
+      <c r="Q4" s="40"/>
+      <c r="R4" s="25">
+        <v>1</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25">
         <v>4</v>
       </c>
-      <c r="U4" s="44">
+      <c r="U4" s="33">
         <v>4</v>
       </c>
       <c r="AA4" s="18"/>
@@ -1410,28 +1410,28 @@
         <v>6</v>
       </c>
       <c r="H5" s="18">
-        <f t="shared" ref="H5:H18" si="2">SUM(I$2*I5,J$2*J5,K$2*K5,L$2*L5,M$2*M5,N$2*N5,O$2*O5,P$2*P5,R$2*R5,S$2*S5,T$2*T5,U$2*U5)</f>
+        <f t="shared" ref="H5:H37" si="2">SUM(I$2*I5,J$2*J5,K$2*K5,L$2*L5,M$2*M5,N$2*N5,O$2*O5,P$2*P5,R$2*R5,S$2*S5,T$2*T5,U$2*U5,V$2*V5,W$2*W5,X$2*X5,Y$2*Y5,Z$2*Z5,AA$2*AA5,AB$2*AB5,AC$2*AC5,AD$2*AD5,)</f>
         <v>25</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="43">
+      <c r="I5" s="32"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="32">
         <v>12</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26">
+      <c r="L5" s="34"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25">
         <v>3</v>
       </c>
-      <c r="U5" s="44"/>
+      <c r="U5" s="33"/>
       <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,23 +1456,23 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="43">
+      <c r="I6" s="32"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="32">
         <v>4</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26">
+      <c r="L6" s="34"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25">
         <v>3</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="33"/>
       <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,21 +1497,21 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26">
-        <v>1</v>
-      </c>
-      <c r="U7" s="44"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25">
+        <v>1</v>
+      </c>
+      <c r="U7" s="33"/>
       <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,31 +1536,31 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I8" s="43">
-        <v>1</v>
-      </c>
-      <c r="J8" s="45">
+      <c r="I8" s="32">
+        <v>1</v>
+      </c>
+      <c r="J8" s="34">
         <v>2</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="32">
         <v>6</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="34">
         <v>2</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="32">
         <v>2</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="43">
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="32">
         <v>2</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="44"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="33"/>
       <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>9</v>
@@ -1585,21 +1585,21 @@
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43">
+      <c r="I9" s="32"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>4</v>
       </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="44"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="33"/>
       <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,21 +1622,21 @@
       </c>
       <c r="H10" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="44"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="33"/>
       <c r="AA10" s="18"/>
       <c r="AD10">
         <v>5</v>
@@ -1651,11 +1651,11 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>11</v>
@@ -1664,21 +1664,21 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44">
-        <v>1</v>
-      </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="44"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33">
+        <v>1</v>
+      </c>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="33"/>
       <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,25 +1701,25 @@
       </c>
       <c r="H12" s="18">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I12" s="43">
+        <v>12</v>
+      </c>
+      <c r="I12" s="32">
         <v>3</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="43">
+      <c r="J12" s="34"/>
+      <c r="K12" s="32">
         <v>2</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="44"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="33"/>
       <c r="AA12" s="18">
         <v>4</v>
       </c>
@@ -1746,19 +1746,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="44"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="33"/>
       <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,21 +1783,21 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="43">
-        <v>1</v>
-      </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="44"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="32">
+        <v>1</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="33"/>
       <c r="AA14" s="18"/>
     </row>
     <row r="15" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1822,19 +1822,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="44"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="33"/>
       <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="1:31" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1859,21 +1859,21 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="43">
+      <c r="I16" s="32"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="32">
         <v>2</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="44"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="33"/>
       <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,21 +1898,21 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="43">
+      <c r="I17" s="32"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="32">
         <v>5</v>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="44"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="33"/>
       <c r="AA17" s="18"/>
     </row>
     <row r="18" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="7">
-        <f>H19</f>
+        <f t="shared" ref="C18:C25" si="3">H19</f>
         <v>3</v>
       </c>
       <c r="D18" s="8">
@@ -1937,21 +1937,21 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="43">
+      <c r="I18" s="32"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="32">
         <v>5</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="44"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="33"/>
       <c r="AA18" s="18"/>
     </row>
     <row r="19" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="7">
-        <f>H20</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D19" s="8">
@@ -1973,26 +1973,26 @@
         <v>19</v>
       </c>
       <c r="H19" s="18">
-        <f>SUM(I$2*I19,J$2*J19,K$2*K19,L$2*L19,M$2*M19,N$2*N19,O$2*O19,P$2*P19,R$2*R19,S$2*S19,T$2*T19,U$2*U19)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="43">
+      <c r="I19" s="32"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="32">
         <v>2</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="44"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="33"/>
       <c r="AA19" s="18"/>
     </row>
     <row r="20" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2003,31 +2003,31 @@
         <v>1.5</v>
       </c>
       <c r="C20" s="7">
-        <f>H21</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D20" s="8">
-        <f>C20*B20</f>
+        <f t="shared" ref="D20:D25" si="4">C20*B20</f>
         <v>30</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="18">
-        <f>SUM(I$2*I20,J$2*J20,K$2*K20,L$2*L20,M$2*M20,N$2*N20,O$2*O20,P$2*P20,R$2*R20,S$2*S20,T$2*T20,U$2*U20)</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="P20" s="45">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="P20" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
       <c r="AA20" s="18"/>
     </row>
     <row r="21" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,37 +2038,37 @@
         <v>2</v>
       </c>
       <c r="C21" s="7">
-        <f>H22</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D21" s="8">
-        <f>C21*B21</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="18">
-        <f>SUM(I$2*I21,J$2*J21,K$2*K21,L$2*L21,M$2*M21,N$2*N21,O$2*O21,P$2*P21,R$2*R21,S$2*S21,T$2*T21,U$2*U21)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26">
-        <v>1</v>
-      </c>
-      <c r="T21" s="26">
-        <v>1</v>
-      </c>
-      <c r="U21" s="44"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25">
+        <v>1</v>
+      </c>
+      <c r="T21" s="25">
+        <v>1</v>
+      </c>
+      <c r="U21" s="33"/>
       <c r="AA21" s="18"/>
     </row>
     <row r="22" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,35 +2079,35 @@
         <v>2.5</v>
       </c>
       <c r="C22" s="7">
-        <f>H23</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D22" s="8">
-        <f>C22*B22</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="18">
-        <f>SUM(I$2*I22,J$2*J22,K$2*K22,L$2*L22,M$2*M22,N$2*N22,O$2*O22,P$2*P22,R$2*R22,S$2*S22,T$2*T22,U$2*U22)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26">
-        <v>1</v>
-      </c>
-      <c r="U22" s="44"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25">
+        <v>1</v>
+      </c>
+      <c r="U22" s="33"/>
       <c r="AA22" s="18"/>
     </row>
     <row r="23" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,35 +2118,35 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <f>H24</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D23" s="8">
-        <f>C23*B23</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="18">
-        <f>SUM(I$2*I23,J$2*J23,K$2*K23,L$2*L23,M$2*M23,N$2*N23,O$2*O23,P$2*P23,R$2*R23,S$2*S23,T$2*T23,U$2*U23)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26">
+      <c r="I23" s="32"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25">
         <v>2</v>
       </c>
-      <c r="U23" s="44"/>
+      <c r="U23" s="33"/>
       <c r="AA23" s="18"/>
     </row>
     <row r="24" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,35 +2157,35 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <f>H25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D24" s="8">
-        <f>C24*B24</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="18">
-        <f>SUM(I$2*I24,J$2*J24,K$2*K24,L$2*L24,M$2*M24,N$2*N24,O$2*O24,P$2*P24,R$2*R24,S$2*S24,T$2*T24,U$2*U24)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26">
-        <v>1</v>
-      </c>
-      <c r="U24" s="44"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25">
+        <v>1</v>
+      </c>
+      <c r="U24" s="33"/>
       <c r="AA24" s="18"/>
     </row>
     <row r="25" spans="1:27" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2196,33 +2196,33 @@
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <f>H26</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D25" s="8">
-        <f>C25*B25</f>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="18">
-        <f>SUM(I$2*I25,J$2*J25,K$2*K25,L$2*L25,M$2*M25,N$2*N25,O$2*O25,P$2*P25,R$2*R25,S$2*S25,T$2*T25,U$2*U25)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="33"/>
       <c r="AA25" s="18"/>
     </row>
     <row r="26" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2236,28 +2236,28 @@
         <v>24</v>
       </c>
       <c r="H26" s="18">
-        <f>SUM(I$2*I26,J$2*J26,K$2*K26,L$2*L26,M$2*M26,N$2*N26,O$2*O26,P$2*P26,R$2*R26,S$2*S26,T$2*T26,U$2*U26)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="43">
+      <c r="I26" s="32"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="32">
         <v>8</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="43">
+      <c r="L26" s="34"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="32">
         <v>5</v>
       </c>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="44"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="25">
+        <v>1</v>
+      </c>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="33"/>
       <c r="AA26" s="18"/>
     </row>
     <row r="27" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="7">
-        <f>H27</f>
+        <f t="shared" ref="C27:C35" si="5">H27</f>
         <v>29</v>
       </c>
       <c r="D27" s="8">
@@ -2279,32 +2279,32 @@
         <v>26</v>
       </c>
       <c r="H27" s="18">
-        <f>SUM(I$2*I27,J$2*J27,K$2*K27,L$2*L27,M$2*M27,N$2*N27,O$2*O27,P$2*P27,R$2*R27,S$2*S27,T$2*T27,U$2*U27)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="32">
         <v>4</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="34">
         <v>4</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="45">
+      <c r="K27" s="32"/>
+      <c r="L27" s="34">
         <v>3</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="32">
         <v>5</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="44"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="33"/>
       <c r="AA27" s="18"/>
     </row>
     <row r="28" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2315,33 +2315,33 @@
         <v>8</v>
       </c>
       <c r="C28" s="7">
-        <f>H28</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" ref="D28:D34" si="3">B28*C28</f>
+        <f t="shared" ref="D28:D34" si="6">B28*C28</f>
         <v>0</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="18">
-        <f>SUM(I$2*I28,J$2*J28,K$2*K28,L$2*L28,M$2*M28,N$2*N28,O$2*O28,P$2*P28,R$2*R28,S$2*S28,T$2*T28,U$2*U28)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="33"/>
       <c r="AA28" s="18"/>
     </row>
     <row r="29" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,33 +2352,33 @@
         <v>8</v>
       </c>
       <c r="C29" s="7">
-        <f>H29</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="18">
-        <f>SUM(I$2*I29,J$2*J29,K$2*K29,L$2*L29,M$2*M29,N$2*N29,O$2*O29,P$2*P29,R$2*R29,S$2*S29,T$2*T29,U$2*U29)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="33"/>
       <c r="AA29" s="18"/>
     </row>
     <row r="30" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,33 +2389,33 @@
         <v>9</v>
       </c>
       <c r="C30" s="7">
-        <f>H30</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="18">
-        <f>SUM(I$2*I30,J$2*J30,K$2*K30,L$2*L30,M$2*M30,N$2*N30,O$2*O30,P$2*P30,R$2*R30,S$2*S30,T$2*T30,U$2*U30)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="33"/>
       <c r="AA30" s="18"/>
     </row>
     <row r="31" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,33 +2426,33 @@
         <v>5</v>
       </c>
       <c r="C31" s="7">
-        <f>H31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="18">
-        <f>SUM(I$2*I31,J$2*J31,K$2*K31,L$2*L31,M$2*M31,N$2*N31,O$2*O31,P$2*P31,R$2*R31,S$2*S31,T$2*T31,U$2*U31)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="33"/>
       <c r="AA31" s="18"/>
     </row>
     <row r="32" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2463,33 +2463,33 @@
         <v>0.25</v>
       </c>
       <c r="C32" s="7">
-        <f>H32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="18">
-        <f>SUM(I$2*I32,J$2*J32,K$2*K32,L$2*L32,M$2*M32,N$2*N32,O$2*O32,P$2*P32,R$2*R32,S$2*S32,T$2*T32,U$2*U32)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="32"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="33"/>
       <c r="AA32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2500,162 +2500,191 @@
         <v>7.5</v>
       </c>
       <c r="C33" s="7">
-        <f>H33</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="18">
-        <f>SUM(I$2*I33,J$2*J33,K$2*K33,L$2*L33,M$2*M33,N$2*N33,O$2*O33,P$2*P33,R$2*R33,S$2*S33,T$2*T33,U$2*U33)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="33"/>
       <c r="AA33" s="18"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="29">
         <v>1</v>
       </c>
       <c r="C34" s="7">
-        <f>H34</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H34" s="18">
-        <f>SUM(I$2*I34,J$2*J34,K$2*K34,L$2*L34,M$2*M34,N$2*N34,O$2*O34,P$2*P34,R$2*R34,S$2*S34,T$2*T34,U$2*U34)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="44"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="32"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="33"/>
       <c r="AA34" s="18"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="48">
         <v>4</v>
       </c>
       <c r="C35" s="7">
-        <f>H35</f>
-        <v>18</v>
-      </c>
-      <c r="D35" s="27">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="D35" s="49">
         <f>B35*C35</f>
-        <v>72</v>
-      </c>
-      <c r="E35" s="32"/>
+        <v>104</v>
+      </c>
+      <c r="E35" s="30"/>
       <c r="G35" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="18">
-        <f>SUM(I$2*I35,J$2*J35,K$2*K35,L$2*L35,M$2*M35,N$2*N35,O$2*O35,P$2*P35,R$2*R35,S$2*S35,T$2*T35,U$2*U35)</f>
-        <v>18</v>
-      </c>
-      <c r="I35" s="43">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I35" s="32">
         <v>4</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="34">
         <v>2</v>
       </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="45">
+      <c r="K35" s="32"/>
+      <c r="L35" s="34">
         <v>2</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="32">
         <v>2</v>
       </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="44"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="33"/>
       <c r="AA35" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="46"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="33"/>
+      <c r="AA36" s="18"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="13">
-        <f>SUM(D27:D35,D3:D25)</f>
-        <v>1270</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="B37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="51">
+        <f>AE3</f>
+        <v>125</v>
+      </c>
+      <c r="D37" s="13">
+        <f>SUM(D27:D35,D3:D25,C37)</f>
+        <v>1466</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="18">
-        <f>SUM(I$2*I36,J$2*J36,K$2*K36,L$2*L36,M$2*M36,N$2*N36,O$2*O36,P$2*P36,R$2*R36,S$2*S36,T$2*T36,U$2*U36)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="44"/>
-      <c r="AA36" s="18"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U40" s="26"/>
+      <c r="H37" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="33"/>
+      <c r="AA37" s="18"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Z41" s="26"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V43" s="26"/>
+      <c r="U41" s="25"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C42" s="15"/>
+      <c r="V42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Z42" s="25"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
